--- a/LSU Surveillance/LSU_BG_DataSheet.xlsx
+++ b/LSU Surveillance/LSU_BG_DataSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xanderpav/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xanderpav/Dropbox/Mosquito/LSU BG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC0A3220-1FC0-7D4D-BCAE-003CA26F929E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC56DD0-5033-1A4B-B851-4FD681A33A8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="940" windowWidth="28040" windowHeight="16800" xr2:uid="{4DED0A19-EEF6-624C-985C-C5080F6FD1C6}"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="28040" windowHeight="16800" xr2:uid="{4DED0A19-EEF6-624C-985C-C5080F6FD1C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
   <si>
     <t>Status</t>
   </si>
@@ -429,10 +429,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87AEF2-E6B0-1A44-A0B3-CBBDB410E143}">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -750,6 +750,282 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>11</v>
+      </c>
+      <c r="B17" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>6</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>12</v>
+      </c>
+      <c r="B21" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>8</v>
+      </c>
+      <c r="B24" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>5</v>
+      </c>
+      <c r="B25" s="4">
+        <v>43970</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>11</v>
       </c>
     </row>

--- a/LSU Surveillance/LSU_BG_DataSheet.xlsx
+++ b/LSU Surveillance/LSU_BG_DataSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xanderpav/Dropbox/Mosquito/LSU BG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC56DD0-5033-1A4B-B851-4FD681A33A8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B10BEE-C7CB-2847-8EF5-1E5A9C78D028}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="28040" windowHeight="16800" xr2:uid="{4DED0A19-EEF6-624C-985C-C5080F6FD1C6}"/>
+    <workbookView xWindow="760" yWindow="480" windowWidth="28040" windowHeight="16780" xr2:uid="{4DED0A19-EEF6-624C-985C-C5080F6FD1C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="14">
   <si>
     <t>Status</t>
   </si>
@@ -63,15 +63,22 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>Cx. Quinq</t>
+  </si>
+  <si>
+    <t>vquinq</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="000"/>
+    <numFmt numFmtId="165" formatCode="\Q0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +90,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,13 +122,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,20 +446,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD87AEF2-E6B0-1A44-A0B3-CBBDB410E143}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.83203125" style="2"/>
-    <col min="12" max="12" width="19.1640625" customWidth="1"/>
+    <col min="7" max="8" width="10.83203125" style="2"/>
+    <col min="9" max="9" width="10.83203125" style="7"/>
+    <col min="13" max="13" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -458,17 +477,20 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I1" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -484,17 +506,23 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>7</v>
       </c>
@@ -510,17 +538,23 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>9</v>
       </c>
@@ -536,17 +570,23 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>11</v>
       </c>
@@ -562,14 +602,23 @@
       <c r="E5">
         <v>0</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>10</v>
       </c>
@@ -585,14 +634,20 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>12</v>
       </c>
@@ -608,14 +663,20 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2">
         <v>3</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -631,14 +692,20 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -654,14 +721,20 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2">
         <v>4</v>
       </c>
-      <c r="G9" s="2">
+      <c r="H9" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I9" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>4</v>
       </c>
@@ -677,14 +750,20 @@
       <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6</v>
       </c>
@@ -700,14 +779,20 @@
       <c r="E11">
         <v>0</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -723,14 +808,20 @@
       <c r="E12">
         <v>0</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -746,14 +837,20 @@
       <c r="E13">
         <v>0</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -769,14 +866,20 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1</v>
       </c>
@@ -792,14 +895,20 @@
       <c r="E15">
         <v>0</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="H15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>9</v>
       </c>
@@ -815,14 +924,20 @@
       <c r="E16">
         <v>0</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>11</v>
       </c>
@@ -838,14 +953,20 @@
       <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2">
         <v>6</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -861,14 +982,20 @@
       <c r="E18">
         <v>0</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>6</v>
       </c>
@@ -884,14 +1011,20 @@
       <c r="E19">
         <v>0</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -907,14 +1040,20 @@
       <c r="E20">
         <v>0</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>12</v>
       </c>
@@ -930,14 +1069,20 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -953,14 +1098,20 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -976,14 +1127,20 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8</v>
       </c>
@@ -999,14 +1156,20 @@
       <c r="E24">
         <v>2</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="2">
+      <c r="F24" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I24" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1022,10 +1185,712 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="8" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="2">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2">
+        <v>9</v>
+      </c>
+      <c r="I27" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>12</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>8</v>
+      </c>
+      <c r="B29" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="2">
+        <v>10</v>
+      </c>
+      <c r="I29" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I30" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="2">
+        <v>11</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="2">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I34" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12</v>
+      </c>
+      <c r="B36" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="4">
+        <v>43979</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>22</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I38" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>10</v>
+      </c>
+      <c r="B41" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>9</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="2">
+        <v>13</v>
+      </c>
+      <c r="I42" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" s="2">
+        <v>14</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>4</v>
+      </c>
+      <c r="B47" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>2</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>6</v>
+      </c>
+      <c r="B48" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="2">
+        <v>15</v>
+      </c>
+      <c r="I48" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" s="4">
+        <v>43984</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="7" t="s">
         <v>11</v>
       </c>
     </row>
